--- a/public/templates/settlement_template_20210604_1.xlsx
+++ b/public/templates/settlement_template_20210604_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20865" windowHeight="8190" tabRatio="206"/>
+    <workbookView windowWidth="27840" windowHeight="12525" tabRatio="206"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>访谈个数</t>
   </si>
@@ -58,10 +58,6 @@
   </si>
   <si>
     <t>访谈单价</t>
-  </si>
-  <si>
-    <t>访谈费用
-（折前费用）</t>
   </si>
   <si>
     <t>访谈费用
@@ -79,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -108,6 +104,134 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -117,61 +241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,80 +250,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,6 +276,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -292,169 +426,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,36 +465,46 @@
     </border>
     <border>
       <left style="hair">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,21 +520,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,17 +548,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,157 +579,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -914,7 +910,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -938,9 +934,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -964,7 +960,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1017,7 +1013,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1042,7 +1038,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1054,23 +1050,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="6" width="12.9619047619048" style="2"/>
     <col min="7" max="7" width="31.1047619047619" style="2"/>
-    <col min="8" max="15" width="12.9619047619048" style="2"/>
-    <col min="16" max="16" width="20.7333333333333" style="2"/>
-    <col min="17" max="17" width="20.7142857142857" style="2" customWidth="true"/>
-    <col min="18" max="1025" width="11.5238095238095" style="2"/>
+    <col min="8" max="14" width="12.9619047619048" style="2"/>
+    <col min="15" max="15" width="20.7333333333333" style="2"/>
+    <col min="16" max="16" width="20.7142857142857" style="2" customWidth="1"/>
+    <col min="17" max="1024" width="11.5238095238095" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="17.3" customHeight="true" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="17.3" customHeight="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1088,9 +1084,8 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
     </row>
-    <row r="2" ht="34.55" customHeight="true" spans="1:17">
+    <row r="2" ht="34.55" customHeight="1" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1133,22 +1128,19 @@
       <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="C1:O1"/>
   </mergeCells>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/public/templates/settlement_template_20210604_1.xlsx
+++ b/public/templates/settlement_template_20210604_1.xlsx
@@ -60,8 +60,7 @@
     <t>访谈单价</t>
   </si>
   <si>
-    <t>访谈费用
-（折后费用）</t>
+    <t>访谈费用</t>
   </si>
   <si>
     <t>实际支付礼金费用</t>
@@ -75,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -99,12 +98,27 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -119,25 +133,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,6 +158,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -157,7 +218,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,91 +226,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,6 +269,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -282,31 +287,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,139 +401,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,17 +493,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,9 +519,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,165 +556,160 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/public/templates/settlement_template_20210604_1.xlsx
+++ b/public/templates/settlement_template_20210604_1.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>访谈个数</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>项目名称</t>
@@ -74,10 +77,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -98,9 +101,38 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,15 +143,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,7 +205,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,62 +235,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,51 +251,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,187 +272,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,58 +499,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,141 +528,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,7 +1052,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1057,19 +1060,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="6" width="12.9619047619048" style="2"/>
-    <col min="7" max="7" width="31.1047619047619" style="2"/>
-    <col min="8" max="14" width="12.9619047619048" style="2"/>
-    <col min="15" max="15" width="20.7333333333333" style="2"/>
-    <col min="16" max="16" width="20.7142857142857" style="2" customWidth="1"/>
-    <col min="17" max="1024" width="11.5238095238095" style="2"/>
+    <col min="1" max="1" width="12.9619047619048" customWidth="1"/>
+    <col min="2" max="7" width="12.9619047619048" style="2"/>
+    <col min="8" max="8" width="31.1047619047619" style="2"/>
+    <col min="9" max="15" width="12.9619047619048" style="2"/>
+    <col min="16" max="16" width="20.7333333333333" style="2"/>
+    <col min="17" max="17" width="20.7142857142857" style="2" customWidth="1"/>
+    <col min="18" max="1025" width="11.5238095238095" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.3" customHeight="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" ht="17.3" customHeight="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1083,18 +1086,19 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
-    <row r="2" ht="34.55" customHeight="1" spans="1:16">
+    <row r="2" ht="34.55" customHeight="1" spans="1:17">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1124,19 +1128,22 @@
       <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:O1"/>
+    <mergeCell ref="D1:P1"/>
   </mergeCells>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/public/templates/settlement_template_20210604_1.xlsx
+++ b/public/templates/settlement_template_20210604_1.xlsx
@@ -78,8 +78,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -109,15 +109,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,86 +144,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -221,29 +154,96 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,19 +278,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,31 +380,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,121 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,17 +499,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,17 +520,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,159 +555,163 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1069,8 +1069,8 @@
     <col min="18" max="1025" width="11.5238095238095" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.3" customHeight="1" spans="1:16">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="17.3" customHeight="1" spans="2:16">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4"/>
